--- a/app/server/static/templates/reports/Apiary_Producer_Analysis_Region_Template.xlsx
+++ b/app/server/static/templates/reports/Apiary_Producer_Analysis_Region_Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://parcsystems.sharepoint.com/projects/Shared Documents/MALS/CDOGS/Development/MALS_Templates/Reports/Apiary_Producer_Analysis_Report/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\MALS\app\server\static\templates\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="57" documentId="14_{E8AE34FD-DE85-1640-A767-6E138FA06BF4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{E72D6E98-7DE5-204D-95E7-071B66B42660}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A93B5F7B-7CCB-40EB-BD48-65677C4E15BB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18740" yWindow="-16700" windowWidth="23260" windowHeight="12580" xr2:uid="{11309506-049F-4A42-8D72-2555D662D497}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{11309506-049F-4A42-8D72-2555D662D497}"/>
   </bookViews>
   <sheets>
     <sheet name="Producer Analysis" sheetId="2" r:id="rId1"/>
@@ -35,9 +35,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
-    <t>Date &amp; Time Report Created</t>
-  </si>
-  <si>
     <t xml:space="preserve">Region </t>
   </si>
   <si>
@@ -123,6 +120,9 @@
   </si>
   <si>
     <t>{d.ProducersWithNoColonies}</t>
+  </si>
+  <si>
+    <t>Date &amp; Time Report Created (UTC)</t>
   </si>
 </sst>
 </file>
@@ -208,9 +208,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -219,6 +216,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -536,121 +536,121 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.5" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.33203125" customWidth="1"/>
-    <col min="6" max="6" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22" customWidth="1"/>
-    <col min="8" max="8" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" s="9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
       <c r="G1" s="1"/>
       <c r="H1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
-      <c r="H2" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H2" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-    </row>
-    <row r="6" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="5" t="s">
+      <c r="C6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="D6" s="5" t="s">
         <v>6</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>7</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="H6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="13" t="s">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="C7" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="D7" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="E7" s="13"/>
+      <c r="F7" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14" t="s">
+      <c r="G7" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="H7" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="14" t="s">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -660,7 +660,7 @@
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -670,7 +670,7 @@
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -680,42 +680,42 @@
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="14" t="s">
         <v>23</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>24</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="H17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H17" s="1" t="s">
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="C21" t="s">
         <v>28</v>
       </c>
-      <c r="C21" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
     </row>
   </sheetData>
@@ -940,18 +940,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -974,6 +974,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35CA84B4-EF12-40C6-8D95-3BC3DF8472ED}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9E9E1F8-6DD0-440C-9B4F-8E63FE02B691}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -988,12 +996,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35CA84B4-EF12-40C6-8D95-3BC3DF8472ED}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/app/server/static/templates/reports/Apiary_Producer_Analysis_Region_Template.xlsx
+++ b/app/server/static/templates/reports/Apiary_Producer_Analysis_Region_Template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\MALS\app\server\static\templates\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A93B5F7B-7CCB-40EB-BD48-65677C4E15BB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87E56B04-475B-420D-AE8D-84AB729DA71F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{11309506-049F-4A42-8D72-2555D662D497}"/>
   </bookViews>
@@ -47,24 +47,12 @@
     <t># Producers</t>
   </si>
   <si>
-    <t>1-24 Colonies</t>
-  </si>
-  <si>
-    <t>25 or more Colonies</t>
-  </si>
-  <si>
     <t>Total # Producers</t>
   </si>
   <si>
     <t># Colonies</t>
   </si>
   <si>
-    <t>&lt; 25</t>
-  </si>
-  <si>
-    <t>&gt; = 25</t>
-  </si>
-  <si>
     <t>Total # Colonies</t>
   </si>
   <si>
@@ -77,42 +65,18 @@
     <t>{d.Region[i].RegionName}</t>
   </si>
   <si>
-    <t>{d.Region[i].Producers1To24}</t>
-  </si>
-  <si>
-    <t>{d.Region[i].Producers25Plus}</t>
-  </si>
-  <si>
     <t>{d.Region[i].ProducersTotal}</t>
   </si>
   <si>
-    <t>{d.Region[i].Colonies1To24}</t>
-  </si>
-  <si>
-    <t>{d.Region[i].Colonies25Plus}</t>
-  </si>
-  <si>
     <t>{d.Region[i].ColoniesTotal}</t>
   </si>
   <si>
     <t>{d.Region[i+1].RegionName}</t>
   </si>
   <si>
-    <t>{d.TotalProducers1To24}</t>
-  </si>
-  <si>
-    <t>{d.TotalProducers25Plus}</t>
-  </si>
-  <si>
     <t>{d.TotalNumProducers}</t>
   </si>
   <si>
-    <t>{d.TotalColonies1To24}</t>
-  </si>
-  <si>
-    <t>{d.TotalColonies25Plus}</t>
-  </si>
-  <si>
     <t>{d.TotalNumColonies}</t>
   </si>
   <si>
@@ -123,6 +87,42 @@
   </si>
   <si>
     <t>Date &amp; Time Report Created (UTC)</t>
+  </si>
+  <si>
+    <t>1-19 Colonies</t>
+  </si>
+  <si>
+    <t>20 or more Colonies</t>
+  </si>
+  <si>
+    <t>&lt; 20</t>
+  </si>
+  <si>
+    <t>&gt; = 20</t>
+  </si>
+  <si>
+    <t>{d.TotalProducers1To19}</t>
+  </si>
+  <si>
+    <t>{d.TotalProducers20Plus}</t>
+  </si>
+  <si>
+    <t>{d.TotalColonies1To19}</t>
+  </si>
+  <si>
+    <t>{d.TotalColonies20Plus}</t>
+  </si>
+  <si>
+    <t>{d.Region[i].Producers1To19}</t>
+  </si>
+  <si>
+    <t>{d.Region[i].Producers20Plus}</t>
+  </si>
+  <si>
+    <t>{d.Region[i].Colonies1To19}</t>
+  </si>
+  <si>
+    <t>{d.Region[i].Colonies20Plus}</t>
   </si>
 </sst>
 </file>
@@ -536,7 +536,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -560,7 +560,7 @@
       <c r="E1" s="9"/>
       <c r="G1" s="1"/>
       <c r="H1" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -571,7 +571,7 @@
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
       <c r="H2" s="11" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -592,7 +592,7 @@
       <c r="D5" s="15"/>
       <c r="E5" s="1"/>
       <c r="F5" s="15" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
@@ -602,52 +602,52 @@
         <v>0</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>4</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>6</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="13" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -682,16 +682,16 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1" t="s">
@@ -701,15 +701,15 @@
         <v>25</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C21" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -729,6 +729,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B8CBF3948AF16E4A9427EB9CB0C3AFDB" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9fc8a81a77eeb73bda9729b3f784b8c4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bc8b8595-9fa1-49bc-a016-2621e7bde64e" xmlns:ns3="e1c8ebbc-f196-4c28-98e9-1900bd408e79" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="88ad40c7f0e134defa4acd5e486d3459" ns2:_="" ns3:_="">
     <xsd:import namespace="bc8b8595-9fa1-49bc-a016-2621e7bde64e"/>
@@ -939,15 +948,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -955,6 +955,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35CA84B4-EF12-40C6-8D95-3BC3DF8472ED}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C959B4F4-B0F5-464B-BB47-ED053C91F781}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -973,14 +981,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35CA84B4-EF12-40C6-8D95-3BC3DF8472ED}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9E9E1F8-6DD0-440C-9B4F-8E63FE02B691}">
   <ds:schemaRefs>
